--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,16 +135,25 @@
     <t>Contribution</t>
   </si>
   <si>
+    <t>To pay the contribution for a Policy under the Informal Sector coverage.</t>
+  </si>
+  <si>
     <t>contract</t>
   </si>
   <si>
     <t>Contract</t>
   </si>
   <si>
+    <t>To pay the contributions under the Formal Sector coverage.</t>
+  </si>
+  <si>
     <t>funding</t>
   </si>
   <si>
     <t>Funding</t>
+  </si>
+  <si>
+    <t>To create a request for external funds.</t>
   </si>
 </sst>
 </file>
@@ -483,31 +492,37 @@
       <c r="C2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-invoice-type.xlsx
+++ b/CodeSystem-invoice-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
